--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/28_Edirne_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/28_Edirne_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D74F581-BD62-4408-BE98-B0DD7A3769DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F99EF5E2-7A5B-45F2-958D-F3FFFA38DC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="669" xr2:uid="{8468D23E-A9B2-4250-83E6-830527C22ADD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{228AF3B3-97A9-4CE4-91EF-0845ED094B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -975,14 +975,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{54842387-D296-4670-9DF1-692710C7F034}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{703B8DE2-5EC1-4F50-BCD7-C5401D0220B7}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6AC334A2-48AE-4ABA-A9BD-094455FA1FA7}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{1729F76E-12E2-4426-80A7-00DD9684F107}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2CE623AF-B075-4F93-B037-1BE640A0BA90}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{67979761-5F75-49BD-ACCB-DCF6DE2DA597}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{76A7DDB6-2AA0-4302-AEC8-A61159C9B8FF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E05D013F-A3F6-4E01-94F9-8FE402CBBA6A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{ED31E085-37D1-4615-A247-579D765AA9F0}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{09CFC5D3-0178-42D0-BD61-6B4461D4F12A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E2B2910F-499D-48E1-B05B-2DDF966CB4E5}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{533A53D8-6188-464C-BE8B-8B7FD66D64CC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{8E92B1B6-44E5-4A97-860F-F2753B471F96}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{5E286FD8-1E7B-4182-98B2-D83C41FDE69E}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{7D832E2A-542D-41F2-B48A-30E60B007BA7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{68E1EAC2-4896-48EC-846D-A7E10053C012}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFB958E-655F-4592-8B20-89A710D88C9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A9D7DA-A96E-4556-926D-E835231EDEEB}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2650,17 +2650,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D38849D-6200-4BD1-912F-C02409DDBF42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6277519-C8DA-440C-BD32-FC088BEC0EEE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9FE70A2-BF25-4899-8281-37AF8ABEF7F7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCCA4A07-77CE-41A2-B650-FB5F04653668}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF190A85-9371-43C4-B748-E945998D2833}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB552F25-54FF-4279-9552-2579D485369D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F129022-0F78-4321-9A5B-46D136B3D971}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88685383-DAB1-4C41-8233-9ED197424F94}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EDC96D49-6C59-4D00-8B4B-3A99A0228E04}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23B3661D-A7EB-4FC0-955C-1C6421F51EDD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A272E09-6EDB-44F8-85E8-DE97199332D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F5FA910-671F-41D8-9646-696886A15DB6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09E80666-60F7-4414-B313-CCCBB97881B7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36917A5C-EB23-4E71-9423-2A866CDA5B90}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7293A46-18E5-4BD0-B46F-958FB812F8AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C24D97FB-4F9E-4234-8858-24FD43A6FC24}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94D35605-F4FE-49E9-85FF-22DC78454E93}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDACE243-0FE1-425C-BD24-6F1DFDEF843D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD9F2384-B482-4060-9389-542056D961D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{61896F9A-C201-4324-A41D-82B6AB29D34E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A7D51BA7-9561-4C82-A9B3-FF145B260D87}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D9BD756-56AB-47DE-80A4-11C4BFBB5001}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2673,7 +2673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F11200-88F5-462C-BA2F-67A67F50FC23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D089E-A508-4CAF-B8D8-C0AE32C67CD2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3957,17 +3957,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDF8EA53-9DB8-481E-89F2-13DDFC9B3A2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E92B9DC7-1A21-4D51-991F-AC1D06A75BF3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{730B8DE5-44D2-495A-8206-27B027A6A929}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{295DDAA7-1689-4B0D-BD69-5AD8E781E309}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D60C04A9-8FBC-4D17-ABE8-EA8D4B687C87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{383092CF-47D4-433C-ADCD-EF36DE9DDB93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C48409D5-E562-4D57-A7FD-9681CDE41A0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B6B83E4F-85AD-4E30-BF79-90C23D195EBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EBD6FF4A-98B7-42BA-A732-1B8630D91794}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2CF1FCAC-22D0-4AE2-89DF-976D471589A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5318E870-FE61-4664-8D7C-BBF99B1B365F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B89D2059-D3D0-448A-838C-F1D0296F70F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AAAC4F6-0B6F-4AAC-8049-33F93E423832}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A80CE687-6E6C-4ABD-9881-E980891D3AE9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F496F6CC-FD62-46A4-9E72-0BB0FDC931AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03C195B9-EC1E-41E6-9F55-20723BE2A5F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E251FCF4-E06E-4E57-9152-BC7BD29B4055}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B372233A-AAF4-47E6-86CB-8D1F94C00606}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B1B2915-29FA-4D05-90A1-8539C6E008EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6C21883B-1CB5-4BF6-AF0C-9DB18FD23AED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7DFB18B9-3CAA-4079-9E2C-4D49BA91F053}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C03DD215-286C-4F70-ABCE-6E396779E740}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3980,7 +3980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0A0414-A070-49C3-A8D9-15860DDCF139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECE1654-1074-4372-BECA-C9DA519E5F9F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5266,17 +5266,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{226AFEC3-CDF1-4E37-9833-5AC2A497DC90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{518FB3C0-55BA-4CA9-A5FA-4E3AC692457B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B68B0C08-7049-47C0-A5C8-065A5B17CF54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CF01DDA-2069-49B4-813A-72F4B1163AD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F108A0F6-E2B1-4846-B072-4A3D063CD24A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15767203-1662-423D-9B84-0D7E54731F86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C316AA18-1347-44BB-A9C1-015C272E7308}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED308CE1-6B64-426D-879A-16C0DBBBBC7C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{318E7EC1-7A63-4CFA-A2A2-0786DA4FE368}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2EE31BA3-DAD0-4670-9571-FFFB55AEF3E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1469FAF7-402B-4A67-86F3-6E1B7E136603}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F643E4E-336C-4993-8E76-AF83172B372A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0066A6E2-CCE1-4CB3-A9BF-8A0D7E316847}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F645A86F-011B-4CE1-9B7C-906A2739C73A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{516C15EB-2118-4ACC-82F7-111B18FEF071}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D014A693-CCC4-4CF7-A662-21355081F2F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA75F685-22D6-487E-B767-680116E5CE2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{769293C1-933A-4D22-B096-30F87BAFAAEF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB86DD6A-C6D8-45B8-8331-B50E914A9889}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3609840B-4055-4140-8407-C42EE5F92B4E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{258769F5-51FA-40A3-9111-F41765B3C764}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90C05ECE-7F18-4D9C-82F2-B7A623E5120C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5289,7 +5289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EB773E-E62F-4C97-B553-7A28492F58A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD62940-DB4B-46E5-A962-0EC325F54835}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6569,17 +6569,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C34945E-DFC7-4F18-848C-0BB59F5E8340}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1223FA5E-A60A-4A8E-9E09-AE36A1DEB3D0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{978C5112-79D0-4551-BC92-672C22EED263}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{992F49EA-8A29-4ECF-959D-36F2CE57E489}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D72CC4C8-7B77-4681-8050-E1237E717535}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4806AE44-AE28-4612-828F-414421E7DBF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65A58BEE-BD3B-481D-AAEF-75155F24D582}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B57FE38D-E423-4090-B3A0-864D928C2594}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F1B1B8DE-108F-404A-B38F-99657A1BFF0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{46959A95-9493-4B10-8F9F-4B2DF7DB61A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA556F1F-EAA7-4EB6-98B7-F2A50382A1CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F13045E-79FA-4844-BEA7-36DDB93E5552}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC6A4BAB-A918-4A67-A04B-28CA68807ED2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FF387EB-3D42-4ABE-8AEB-8D85C76B5FB0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CDB8E80F-CE65-47B1-8C9A-679DE958821D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFFC2F77-AFCB-4AA5-8615-7370CF23EAEF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21A984A8-4440-4E72-9B7C-8958EC0510A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{178C45A8-20CB-402A-A634-5B812A2E71D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46A7C307-4F69-4715-A774-39EB5E17863C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3D129887-163D-4E8C-BA1B-F8D3B8E980BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E5B2014-C1E0-4AD2-B715-50734F5B78E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3CA5B3EF-DBF6-4AEA-A9D4-2C6FB5659832}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6592,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF723C2-C5E6-4AD5-8526-423BA6837911}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B40AD4B-A385-44A5-981E-DE41FE9C9BAA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7887,17 +7887,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FD6F784-B64C-4966-8E3F-31EEA20C1CE5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE9A6C27-9B18-4DBB-A2CB-C3BFD36631AB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B31999EB-B7F2-4EAB-9289-EE43F4247986}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C33909E5-D9ED-4E1F-B97C-73EDED899CFD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A0B1D7D-7234-41A0-8CDD-876C68457B1C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A9CD9FF-5405-49FE-BC41-46B192F038EB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA48ACF7-4F33-496C-874A-69565C9CBBCE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F544E55B-26A0-4D3D-BA21-1D335DC14900}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{16A6ABF5-6CCA-4E0F-AF77-20A88ECBA3AA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E97CD44F-6598-438C-9C40-02AFEFB99A12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{358B5063-990F-46F8-A2C7-E60D1E4B55C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9F93A2D-EC76-4385-AE39-D2E352B9F8F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2430E211-3A9D-4DA4-BF73-2B881E8250D1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1681F3DA-D1BD-46B9-9716-C2EECCF35E4A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A81C290-7669-49D2-8FBF-B477C5118396}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF399DB3-1218-4471-9949-0024B53FD138}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{00AD66C6-CAFA-4CCB-866D-28A06C847774}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FD27E60-0834-47F5-B075-84FA4E5272FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9066B795-0A42-4273-8E6B-C475099BB2AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7AA1D0D7-7A4D-4A2A-8405-655E0BC96D5B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{20EE907F-94C5-479F-B8FC-092A39D4797B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A9E9A8A-F9F3-4A05-AC46-54B8803E5DA4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7910,7 +7910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A7B803-714F-4919-A422-EE8D889DAC28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13D4D5C-1BFD-41B4-8BBD-2687502C86EF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9205,17 +9205,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD088829-4BDF-451A-88F3-F0FF020239B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1F9206A-B5DF-4BC5-83E9-80F9D8525EDC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D4B0116-3DA1-4E21-86E9-F23508D65B52}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0CEB5219-D442-4747-8264-F4199E748CA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A01017B9-6F12-4947-B183-996A81EF4D16}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD987807-CED0-4DB5-B5E3-8FEC59E98217}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C210408A-EC41-43B7-B658-DEB870228AC0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB5B5510-61DA-497D-A0AA-BDA49A38122E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7F7B1743-6E00-4898-8C2A-0FB0461FBD7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1F49AD6B-3606-4A5D-8426-5AFF18AE85A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59066E13-6387-49C5-A250-0B20898574D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58EBB0F2-0CE3-46AD-AB64-8FA8E462F118}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16BABF6A-AB41-4B70-940D-91F061E24F48}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2455B485-CD68-46DF-AF38-13CA710EA2D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{46D5F9AA-609A-41F3-894E-99BD34EEA153}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED42405F-A64B-4FFA-B10E-6902F83AB435}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0CDB5DE-DE74-46B1-9D43-35F32FA8AC22}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE8CEB70-B456-46BB-86F9-3B004D608B5A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B08617C2-AA03-4200-8462-0AFBFB862DD8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CB37A632-B6BC-4080-A85F-B23D2FE605DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{05A7CC63-526D-464F-BDB1-F9781265F4CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9D173D1-9654-4193-967A-54809C57E6C4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9228,7 +9228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70614339-75A2-4B76-B34A-9A97840AACFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3ACB0F-F5DF-4700-AFB0-277955472A9C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10523,17 +10523,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AE9F8F8-E27D-4F1F-99E1-52A605AE588E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F830BD91-F5A9-4980-BFF1-93556A2A07B5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA228A89-6DE1-4CED-AFD0-0B0FED04A9B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{28B792BE-5E5D-423E-B5FF-E1F80229BE47}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90C03E7F-2DA2-4299-9936-EE8690C2A9C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FBEBA886-5E28-4ACC-9D78-22E6E50658B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E30C20D9-760C-49FD-B63F-9CF0F0F72CF9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AE3AE8E-B0C6-4EB5-BA69-7F3BF275BE37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6D0A1E88-0E53-4A96-B9E8-2137113A0796}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8C5C194F-D069-41CB-BF93-A5774B3FB6A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF690A0E-3D0E-4CBB-8CB8-BC004C76A254}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C92EC21-37C5-4B40-8628-890F527ED709}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E851B97B-A49A-46E0-8019-D683732D8000}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89CF7F22-E9A3-438A-AF8A-0D0A9140B474}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66049B36-25A0-4AEF-B74C-329324554610}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26F53135-93F3-431C-B32E-86DD81DF6A97}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE85D875-E006-4431-85AC-6066EA54919A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{472EC808-F2DE-45BE-91F4-FF6235B9DC06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9AAA688A-FE45-4668-A2D4-11D113869608}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8AA9BEC3-2501-4FB7-A25B-CB8DCA77846E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7B2D82D1-89F5-4E82-B9DA-262DA3C5908C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FD904E5-32A8-435C-BB4D-85B469ABFA2C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10546,7 +10546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F4E4F1-D7C9-4A30-8FC3-145A03F7C715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910CC365-B73F-46FB-893B-4238B0D89F68}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11841,17 +11841,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB10F33E-B41D-42B5-B35D-2A4FDE73FC38}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAA641B4-D929-4408-B5A7-E1A7285D17E4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A60A5B4-B008-4C12-929F-1F028E5C3E5E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{408D0785-678C-4D34-820A-071241A6E4E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B78B6AF-6EB7-44A9-8BE5-68F15859C984}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB526487-498B-428F-B6E5-9960DBAC8488}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15F228AE-1B2B-44CA-ADD5-F05022ABCAEB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5163F615-12DB-4F9C-AD05-4B7B046A6725}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C118DC14-CD9E-4CED-AFAB-861EDFBC550C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{777D52BC-6082-48EB-AA58-E29E1348B425}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6037744-400E-4983-83DF-B1ECFB10D0B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6771E1EC-1420-4ACE-9BBA-AF91706E94E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A82C4A0-BFD4-4387-A839-F15360A9E719}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D024B4C1-1EC9-434B-B7B7-A766C299F996}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C3FB0FCB-7CC6-46D2-8BA7-2E5659927936}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3DD5F01-CC2E-4C15-AD79-EBE07283A1C1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FA407D2-8F4F-456B-A578-42E4C679BD65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{170642D2-2F87-494E-AFBB-E883DA0AA459}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2BB0223A-2899-4809-82B5-59E927887BD3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ABDEC76B-FCD2-4922-BA50-2B959C43722C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CAC82F9D-380E-4C36-AEC0-B721ACF18F48}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4070CBF7-E561-420E-AF30-C60A14B6CD4F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11864,7 +11864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFF57EF-8669-4A6C-B788-64D4051484B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB0F3E9-8D9B-4B28-B8EB-BA7136E176DC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13159,17 +13159,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42432F53-9497-4D71-8A17-0CCF217E9B81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E1BA209-FCE9-4CDC-B52F-52303FBA7AAB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55226CEF-817C-413A-9589-F8F115F151F8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{642DBF31-FA91-4CFF-8EF0-279F6DD7DEF6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9EC6A931-CB60-4792-814D-C42DDCDAADB3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB60F063-6B1A-4D0D-B9E4-CF211D95B082}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC07B28F-D3D3-4181-9185-3E166A670A29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04DD64BC-24ED-4E3C-89B9-45AB4AAEA8C0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DA6B45C8-F464-4C48-B7E2-674B23C410B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{43AF8E0C-0493-4BA8-A6DC-1767C6D8C06F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA0BB1CD-44B2-4D2E-B1E6-430E1EA213D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8FFF288-560D-42E6-8CE5-34468D125457}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F63A7D7-49F1-4603-B657-484D5B10DB56}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2CF6FDE5-D137-4ED4-8C72-3E41AA1F74AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{313EE7D8-1BB5-4A79-866C-F6492341B3EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34F9FE8C-0DD7-4A85-B481-E6B9DC1CD575}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{736F880E-46A4-4C91-8C8A-43D5CF75CBF0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C010889D-9C9F-4BD3-BAA7-CDA89B4A47ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14FFB85B-7DC8-4531-9797-4ECFD93E69B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AD9E62CB-F456-4336-B42D-37B978A419D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CAF0D26F-65F9-4893-914F-4CF30A645936}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77B16B7E-366D-4885-9FC5-D64D9B75E19F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13182,7 +13182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD97075-3755-4153-BABD-479721C07EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B798738-2D3D-4DC4-919B-10CEF9209257}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14477,17 +14477,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BCC012A-F5E1-4EAB-B5DC-EC7F21B6D93A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F31C40C-5DB3-4205-9FC8-368EC2B7B08B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1A2D345F-FAC5-4082-A872-5A7EDD7AF88C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53C56806-8706-49B6-AC75-847D525575C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2A3E60E-1ABC-44C9-934A-3DE89362C07F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D7F2D6F3-964A-4DA4-A81F-13F2B5C0B267}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97F73E6C-B214-4DF1-B69A-198570A50776}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0D335EB-EB46-49ED-A54D-06BE52A87C73}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{229468AB-FAA9-4C7C-9DB1-00A4F6B15C62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EF8FD036-EF3F-4191-B208-834618A8F874}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E48E0AF-1CAA-46B1-BF7B-9406A83D79BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22438469-95BA-4D40-B535-B661B9EC34C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E7D2A34-FE7B-439B-83E8-11F46AE0ABFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F50A5C46-3194-44D7-8EBE-A2A67DD7F417}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5EBA4BD8-3037-4A7E-B3DB-6DDFC0C80B01}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{351B3531-395C-45C0-A51A-9517F77FADCF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76FBA99B-86B8-4E6A-918A-5249CB0D3D7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{233AE1A7-40F3-44D1-9D16-62CFB85875F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F35F6A6F-FCB6-485B-8665-F8F812CEFB00}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{416633E2-8940-48DA-9C51-A4C16FB47226}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{466E9665-E488-45B4-86D2-4628F212E9DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA261BF5-1792-4411-8DFF-1B349D99612C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14500,7 +14500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A1466B-AA79-4356-B13C-CFDA8AF3E03E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F596E3E4-4A97-4464-A1F6-6690636549C0}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15796,17 +15796,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0340AB4-C3B4-4CBC-BEB8-878D843C6C9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37BB98A5-034E-41D9-B88C-E73122F2057F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5616015C-25C8-4A35-B1BE-B74E7EFC0EAD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D89B05F-9D25-4763-8B92-9B6C357FC40B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBFB1F61-A9AE-4AA1-8242-F20A01E56B0B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDB1173A-99BB-4D3E-B44E-1D06E643B1A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73CEAB52-D9F7-4370-A86D-115C8D4FE1BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{244508EF-F727-4BC7-9FE7-194178DDE420}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{16F78A6E-9558-481A-B862-0D7D40D8581E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F48B3172-E073-49AA-ADF1-7BBF11671289}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{945F3367-A13B-4C1A-BE67-7972FE722036}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48ABE43F-24C0-4904-AC44-978C9D66D13E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B55CB45F-6C46-49B7-A9BD-0D82E652EB67}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C6E9AFBE-C69E-4ECD-A320-886ABF7BD760}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BFAA7301-E581-4A6B-BA65-5CC009EE8589}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B34BC754-71D0-4A73-A2A5-B803364006CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75155B19-0279-41F9-8505-CE932F04AE13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E09F0DF9-BBD8-44BE-B512-79D51C31BA3B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD4D6201-06D4-4C03-8DE3-5DAA2E9AC21D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F8F7090B-43A9-4327-8F8F-E66E0B21C862}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{557C617D-E6D3-4157-A48C-501B645892D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10F60EB9-8FE2-46F8-A8B1-8A7240F582B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15819,7 +15819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C51AEA6-AFD6-4F65-BB94-63B1518878C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE1985A-1300-422A-894B-0365CAA6FA9E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17103,17 +17103,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C477C122-68C9-481E-A6FE-1133AB9DB348}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F6E48FA-219A-4DA8-975D-1195EF1186A0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0A65508-C0C3-48FB-978F-A4581E06A667}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B63DEAF1-4FE0-45D5-9E93-573804C928F5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA48B0F5-9A65-42E5-BE38-47250668F16B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{722BBE8D-8928-440E-9928-FF639D54D47D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B46F2AAB-8D34-471B-B963-C686448CF288}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B318BB1-1C3F-48A5-8CDA-8F719AE55763}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{27B78829-45B1-41F0-912B-12069D3552E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{47B5E9D7-22F7-43F1-9861-8FC72CC5864D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70F26C50-E86A-45CA-BA62-B50A92868BC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B62EB9E7-72AC-4B76-9161-8827E617A4A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB859CBE-DC70-48D2-BC2A-50A74C866F1B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B159CAE2-6770-4315-83FF-E4CAF3C87383}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8D1C580-73C2-401A-A609-43AFEC633A61}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC940A69-0BE8-4DF0-B03E-F8428913AC0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{697C6D71-02AE-43C0-9EC4-DD243882C0E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C305330-7806-4F8C-942A-DCB165F1F2E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FA81FF2-B30D-475D-8E27-AB489577F420}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{64A4F716-700E-4390-8B2D-611CEE858FA5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C20B2AA0-160D-4983-829A-618661F69AD4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC27D043-8D7A-4509-8114-188403FE67E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
